--- a/medicine/Enfance/Dorothy_Joan_Harris/Dorothy_Joan_Harris.xlsx
+++ b/medicine/Enfance/Dorothy_Joan_Harris/Dorothy_Joan_Harris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothy Joan Harris (14 février 1931) est une écrivaine canadienne. Née à Kōbe au Japon, elle arrive en 1938 au Canada, avant le début de la Seconde Guerre mondiale. Après quoi elle étudie la littérature à l'Université de Toronto et part enseigner en France ainsi qu'au Japon.
-Elle épouse Alan Harris en 1955 et s'établit définitivement à Toronto, où elle exerce le métier d'éditrice pour la maison Copp Clark. Mère de deux enfants, Doug et Kim, elle s'est lancée dans la littérature jeunesse en écrivant d'abord pour sa propre famille, avant de s'adresser à un plus large public[1].
+Elle épouse Alan Harris en 1955 et s'établit définitivement à Toronto, où elle exerce le métier d'éditrice pour la maison Copp Clark. Mère de deux enfants, Doug et Kim, elle s'est lancée dans la littérature jeunesse en écrivant d'abord pour sa propre famille, avant de s'adresser à un plus large public.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>The House Mouse, 1973
 The School Mouse, 1979
